--- a/team_specific_matrix/Lipscomb_A.xlsx
+++ b/team_specific_matrix/Lipscomb_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2062780269058296</v>
+        <v>0.2015810276679842</v>
       </c>
       <c r="C2">
-        <v>0.5605381165919282</v>
+        <v>0.5691699604743083</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004484304932735426</v>
+        <v>0.007905138339920948</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1524663677130045</v>
+        <v>0.150197628458498</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07623318385650224</v>
+        <v>0.07114624505928854</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02362204724409449</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01574803149606299</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8110236220472441</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1496062992125984</v>
+        <v>0.1506849315068493</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8333333333333334</v>
+        <v>0.82</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1666666666666667</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05696202531645569</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006329113924050633</v>
+        <v>0.01025641025641026</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05063291139240506</v>
+        <v>0.04102564102564103</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2531645569620253</v>
+        <v>0.2256410256410256</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006329113924050633</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.189873417721519</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="R6">
-        <v>0.08227848101265822</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="S6">
-        <v>0.3544303797468354</v>
+        <v>0.358974358974359</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1056910569105691</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03252032520325204</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06504065040650407</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04065040650406504</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.008130081300813009</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1788617886178862</v>
+        <v>0.1895424836601307</v>
       </c>
       <c r="R7">
-        <v>0.1300813008130081</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="S7">
-        <v>0.4390243902439024</v>
+        <v>0.4313725490196079</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1031941031941032</v>
+        <v>0.09664694280078895</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02211302211302211</v>
+        <v>0.01972386587771203</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04668304668304668</v>
+        <v>0.05325443786982249</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1056511056511057</v>
+        <v>0.1045364891518738</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01474201474201474</v>
+        <v>0.01577909270216963</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1793611793611794</v>
+        <v>0.1715976331360947</v>
       </c>
       <c r="R8">
-        <v>0.1351351351351351</v>
+        <v>0.1400394477317554</v>
       </c>
       <c r="S8">
-        <v>0.3931203931203931</v>
+        <v>0.398422090729783</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1202185792349727</v>
+        <v>0.1146788990825688</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02185792349726776</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04918032786885246</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08196721311475409</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00546448087431694</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2240437158469945</v>
+        <v>0.2201834862385321</v>
       </c>
       <c r="R9">
-        <v>0.06557377049180328</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="S9">
-        <v>0.4316939890710382</v>
+        <v>0.426605504587156</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09368421052631579</v>
+        <v>0.08304794520547945</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02526315789473684</v>
+        <v>0.02397260273972603</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07368421052631578</v>
+        <v>0.0761986301369863</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09789473684210526</v>
+        <v>0.09332191780821918</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01157894736842105</v>
+        <v>0.01198630136986301</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2515789473684211</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>0.08947368421052632</v>
+        <v>0.09674657534246575</v>
       </c>
       <c r="S10">
-        <v>0.3568421052631579</v>
+        <v>0.3647260273972603</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.161849710982659</v>
+        <v>0.1741071428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08092485549132948</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="K11">
-        <v>0.2312138728323699</v>
+        <v>0.2455357142857143</v>
       </c>
       <c r="L11">
-        <v>0.5202312138728323</v>
+        <v>0.4910714285714285</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005780346820809248</v>
+        <v>0.004464285714285714</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7741935483870968</v>
+        <v>0.7787610619469026</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1720430107526882</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03225806451612903</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02150537634408602</v>
+        <v>0.01769911504424779</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7560975609756098</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02158273381294964</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1654676258992806</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="I15">
-        <v>0.07913669064748201</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="J15">
-        <v>0.3669064748201439</v>
+        <v>0.3450292397660819</v>
       </c>
       <c r="K15">
-        <v>0.05755395683453238</v>
+        <v>0.04678362573099415</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02158273381294964</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04316546762589928</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2446043165467626</v>
+        <v>0.2865497076023392</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0119047619047619</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2083333333333333</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="I16">
-        <v>0.08928571428571429</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="J16">
-        <v>0.4107142857142857</v>
+        <v>0.4175257731958763</v>
       </c>
       <c r="K16">
-        <v>0.08928571428571429</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02380952380952381</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04166666666666666</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.125</v>
+        <v>0.1237113402061856</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.004950495049504951</v>
+        <v>0.004056795131845842</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1905940594059406</v>
+        <v>0.1906693711967546</v>
       </c>
       <c r="I17">
-        <v>0.1163366336633663</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J17">
-        <v>0.4579207920792079</v>
+        <v>0.4421906693711968</v>
       </c>
       <c r="K17">
-        <v>0.06435643564356436</v>
+        <v>0.06693711967545639</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01732673267326733</v>
+        <v>0.01825557809330629</v>
       </c>
       <c r="N17">
-        <v>0.002475247524752475</v>
+        <v>0.002028397565922921</v>
       </c>
       <c r="O17">
-        <v>0.0297029702970297</v>
+        <v>0.02636916835699797</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1163366336633663</v>
+        <v>0.1318458417849899</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.25</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="I18">
-        <v>0.08888888888888889</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3531914893617021</v>
       </c>
       <c r="K18">
-        <v>0.05555555555555555</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03333333333333333</v>
+        <v>0.02553191489361702</v>
       </c>
       <c r="N18">
-        <v>0.005555555555555556</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="O18">
-        <v>0.06666666666666667</v>
+        <v>0.05957446808510639</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1444444444444444</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01687763713080169</v>
+        <v>0.01508801341156748</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2447257383966245</v>
+        <v>0.2388935456831517</v>
       </c>
       <c r="I19">
-        <v>0.1033755274261603</v>
+        <v>0.09639564124056998</v>
       </c>
       <c r="J19">
-        <v>0.3765822784810127</v>
+        <v>0.3805532271584242</v>
       </c>
       <c r="K19">
-        <v>0.0770042194092827</v>
+        <v>0.07963118189438391</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01793248945147679</v>
+        <v>0.01676445934618609</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008382229673093043</v>
       </c>
       <c r="O19">
-        <v>0.06118143459915612</v>
+        <v>0.06286672254819782</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1023206751054852</v>
+        <v>0.1089689857502096</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Lipscomb_A.xlsx
+++ b/team_specific_matrix/Lipscomb_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2015810276679842</v>
+        <v>0.1934306569343066</v>
       </c>
       <c r="C2">
-        <v>0.5691699604743083</v>
+        <v>0.583941605839416</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.007905138339920948</v>
+        <v>0.01094890510948905</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.150197628458498</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07114624505928854</v>
+        <v>0.06569343065693431</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02054794520547945</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0136986301369863</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.815068493150685</v>
+        <v>0.7914110429447853</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1506849315068493</v>
+        <v>0.1595092024539877</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.18</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06666666666666667</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01025641025641026</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04102564102564103</v>
+        <v>0.03791469194312796</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2256410256410256</v>
+        <v>0.2322274881516588</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005128205128205128</v>
+        <v>0.004739336492890996</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1948717948717949</v>
+        <v>0.1895734597156398</v>
       </c>
       <c r="R6">
-        <v>0.09743589743589744</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="S6">
-        <v>0.358974358974359</v>
+        <v>0.3601895734597156</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09803921568627451</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03267973856209151</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05882352941176471</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05228758169934641</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0130718954248366</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1895424836601307</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="R7">
-        <v>0.1241830065359477</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="S7">
-        <v>0.4313725490196079</v>
+        <v>0.4216867469879518</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09664694280078895</v>
+        <v>0.09457092819614711</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01972386587771203</v>
+        <v>0.01751313485113835</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.001751313485113835</v>
       </c>
       <c r="F8">
-        <v>0.05325443786982249</v>
+        <v>0.05078809106830123</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1045364891518738</v>
+        <v>0.09632224168126094</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01577909270216963</v>
+        <v>0.01576182136602452</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1715976331360947</v>
+        <v>0.1751313485113835</v>
       </c>
       <c r="R8">
-        <v>0.1400394477317554</v>
+        <v>0.1436077057793345</v>
       </c>
       <c r="S8">
-        <v>0.398422090729783</v>
+        <v>0.404553415061296</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1146788990825688</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02293577981651376</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05045871559633028</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0871559633027523</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.004587155963302753</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2201834862385321</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R9">
-        <v>0.07339449541284404</v>
+        <v>0.0811965811965812</v>
       </c>
       <c r="S9">
-        <v>0.426605504587156</v>
+        <v>0.4316239316239316</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08304794520547945</v>
+        <v>0.08314087759815242</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02397260273972603</v>
+        <v>0.02463433410315627</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0761986301369863</v>
+        <v>0.07467282525019246</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09332191780821918</v>
+        <v>0.09314857582755966</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01198630136986301</v>
+        <v>0.01077752117013087</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0.2517321016166282</v>
       </c>
       <c r="R10">
-        <v>0.09674657534246575</v>
+        <v>0.09622786759045419</v>
       </c>
       <c r="S10">
-        <v>0.3647260273972603</v>
+        <v>0.365665896843726</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1741071428571428</v>
+        <v>0.1646090534979424</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08482142857142858</v>
+        <v>0.08230452674897119</v>
       </c>
       <c r="K11">
-        <v>0.2455357142857143</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="L11">
-        <v>0.4910714285714285</v>
+        <v>0.5144032921810699</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004464285714285714</v>
+        <v>0.00411522633744856</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7787610619469026</v>
+        <v>0.751937984496124</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1769911504424779</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02654867256637168</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01769911504424779</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7560975609756098</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2195121951219512</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02439024390243903</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01754385964912281</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1754385964912281</v>
+        <v>0.1875</v>
       </c>
       <c r="I15">
-        <v>0.07017543859649122</v>
+        <v>0.06770833333333333</v>
       </c>
       <c r="J15">
-        <v>0.3450292397660819</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="K15">
-        <v>0.04678362573099415</v>
+        <v>0.05208333333333334</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02339181286549707</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03508771929824561</v>
+        <v>0.03645833333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2865497076023392</v>
+        <v>0.2604166666666667</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01030927835051546</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2216494845360825</v>
+        <v>0.2274881516587678</v>
       </c>
       <c r="I16">
-        <v>0.08247422680412371</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="J16">
-        <v>0.4175257731958763</v>
+        <v>0.4170616113744076</v>
       </c>
       <c r="K16">
-        <v>0.08247422680412371</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02061855670103093</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04123711340206185</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1237113402061856</v>
+        <v>0.1279620853080569</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.004056795131845842</v>
+        <v>0.007233273056057866</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1906693711967546</v>
+        <v>0.1934900542495479</v>
       </c>
       <c r="I17">
-        <v>0.1176470588235294</v>
+        <v>0.1157323688969259</v>
       </c>
       <c r="J17">
-        <v>0.4421906693711968</v>
+        <v>0.4358047016274864</v>
       </c>
       <c r="K17">
-        <v>0.06693711967545639</v>
+        <v>0.0650994575045208</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01825557809330629</v>
+        <v>0.0216998191681736</v>
       </c>
       <c r="N17">
-        <v>0.002028397565922921</v>
+        <v>0.001808318264014466</v>
       </c>
       <c r="O17">
-        <v>0.02636916835699797</v>
+        <v>0.02893309222423146</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1318458417849899</v>
+        <v>0.1301989150090416</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02127659574468085</v>
+        <v>0.01893939393939394</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2553191489361702</v>
+        <v>0.2651515151515151</v>
       </c>
       <c r="I18">
-        <v>0.08936170212765958</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="J18">
-        <v>0.3531914893617021</v>
+        <v>0.3484848484848485</v>
       </c>
       <c r="K18">
-        <v>0.06382978723404255</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02553191489361702</v>
+        <v>0.02651515151515152</v>
       </c>
       <c r="N18">
-        <v>0.00425531914893617</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="O18">
-        <v>0.05957446808510639</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1276595744680851</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01508801341156748</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2388935456831517</v>
+        <v>0.2393939393939394</v>
       </c>
       <c r="I19">
-        <v>0.09639564124056998</v>
+        <v>0.0946969696969697</v>
       </c>
       <c r="J19">
-        <v>0.3805532271584242</v>
+        <v>0.3840909090909091</v>
       </c>
       <c r="K19">
-        <v>0.07963118189438391</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01676445934618609</v>
+        <v>0.01742424242424243</v>
       </c>
       <c r="N19">
-        <v>0.0008382229673093043</v>
+        <v>0.0007575757575757576</v>
       </c>
       <c r="O19">
-        <v>0.06286672254819782</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1089689857502096</v>
+        <v>0.1075757575757576</v>
       </c>
     </row>
   </sheetData>
